--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -340,28 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -340,12 +340,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -340,23 +340,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>9</v>
       </c>

--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -353,18 +353,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>90</v>
-      </c>
-      <c r="C2">
-        <v>162</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -348,7 +348,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B1">
+        <v>90</v>
+      </c>
+      <c r="C1">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -358,13 +364,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>162</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>36</v>
+        <v>442</v>
       </c>
       <c r="B1">
         <v>90</v>
@@ -359,12 +359,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>

--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,22 +348,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>442</v>
-      </c>
-      <c r="B1">
-        <v>90</v>
-      </c>
-      <c r="C1">
-        <v>162</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>626</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
+        <v>626</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>730</v>
       </c>
     </row>

--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -340,34 +340,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>626</v>
       </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>162</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:1">
       <c r="A4">
         <v>730</v>
       </c>

--- a/hoja1.xlsx
+++ b/hoja1.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,21 +348,16 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>3</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>442</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
         <v>730</v>
       </c>
     </row>
